--- a/biology/Médecine/Artère_tympanique_supérieure/Artère_tympanique_supérieure.xlsx
+++ b/biology/Médecine/Artère_tympanique_supérieure/Artère_tympanique_supérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_tympanique_sup%C3%A9rieure</t>
+          <t>Artère_tympanique_supérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère tympanique supérieure est une petite artère du crâne, branche de l'artère méningée moyenne. Elle passe dans le canal du muscle du marteau et vascularise le muscle du marteau et la muqueuse du canal.
 </t>
